--- a/medicine/Mort/Mort_maternelle/Mort_maternelle.xlsx
+++ b/medicine/Mort/Mort_maternelle/Mort_maternelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mort maternelle est définie comme le décès d’une femme survenu au cours de la grossesse ou dans un délai de 42 jours après sa terminaison, quelle qu’en soit la durée ou la localisation, pour une cause quelconque déterminée ou aggravée par la grossesse ou les soins qu’elle a motivés, mais ni accidentelle, ni fortuite.
 </t>
@@ -511,10 +523,12 @@
           <t>Statistiques mondiales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 2002, les Nations unies estimaient que la mortalité maternelle globale atteint 529 000 par an, dont moins de 1 % se produisent dans les pays développés. Cependant, la plupart de ces décès étaient évitables d'un point de vue médical car les traitements pour les éviter sont bien connus depuis les années 1950.
-En 2015, ce chiffre était encore de 295 000 par l'OMS, l'UNICEF, l'UNFPA, la Banque mondiale et l'ONU à 295 000 décès maternels/an[1]</t>
+En 2015, ce chiffre était encore de 295 000 par l'OMS, l'UNICEF, l'UNFPA, la Banque mondiale et l'ONU à 295 000 décès maternels/an</t>
         </is>
       </c>
     </row>
@@ -544,11 +558,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Décès par cause obstétricale directe
-Décès résultant de complications obstétricales, d’interventions, d’omissions, d’un traitement incorrect ou d’un enchaînement d’événements résultant de l’un quelconque des facteurs ci-dessus »
-Décès par cause obstétricale indirecte
-Décès résultant d’une maladie préexistante ou d’une affection apparue au cours de la grossesse sans qu’elle soit due à des causes obstétricales directes, mais qui a été aggravée par les effets physiologiques de la grossesse »
-Les causes les plus répandues sont[2] :
+          <t>Décès par cause obstétricale directe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décès résultant de complications obstétricales, d’interventions, d’omissions, d’un traitement incorrect ou d’un enchaînement d’événements résultant de l’un quelconque des facteurs ci-dessus »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mort_maternelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_maternelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Catégories</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décès par cause obstétricale indirecte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Décès résultant d’une maladie préexistante ou d’une affection apparue au cours de la grossesse sans qu’elle soit due à des causes obstétricales directes, mais qui a été aggravée par les effets physiologiques de la grossesse »
+Les causes les plus répandues sont :
 hémorragies, comme en cas de rupture utérine, atonie utérine, placenta praevia ou hématome rétroplacentaire
 hypertension artérielle
 thrombose
